--- a/Quarto_Bimestre/Manual_Gerenciamento_Requisitos/Sprint4bim.xlsx
+++ b/Quarto_Bimestre/Manual_Gerenciamento_Requisitos/Sprint4bim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98d6025ebde2d13b/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354B4E9C-B467-4742-AD82-022B57FEA21D}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8655C4B8-B7A3-41F9-AD4E-F3B487F82461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F268137-A238-4976-A29C-BB669230EC41}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Tarefa</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Participantes</t>
   </si>
   <si>
-    <t>Criação de Diagrama de Análise de Projeto (pré-projeto)</t>
+    <t>Criação de Diagrama de Classe (pré-projeto)</t>
   </si>
   <si>
     <t>1 hora</t>
@@ -70,12 +70,18 @@
     <t>M1</t>
   </si>
   <si>
-    <t>Criação de Diagrama de Análise de Sistema (pré-projeto)</t>
+    <t>Criação de Diagrama de Sequência(pré-projeto)</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>T1 (M1)</t>
+  </si>
+  <si>
     <t>Diagrama de Pertt (pré-projeto)</t>
   </si>
   <si>
@@ -85,30 +91,39 @@
     <t>T3</t>
   </si>
   <si>
+    <t>Diagram de Gantt  (pré-projeto)</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>Diagram de Gantt  (pré-projeto)</t>
-  </si>
-  <si>
-    <t>2 horas</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>Diagrama Burndown  (pré-projeto)</t>
   </si>
   <si>
     <t>T5</t>
   </si>
   <si>
+    <t>T4 (M2)</t>
+  </si>
+  <si>
     <t>Reunião semanal (Semana 1)</t>
   </si>
   <si>
     <t>T6</t>
   </si>
   <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>T2, T3, T5 (M3)</t>
+  </si>
+  <si>
     <t>Desenvolver métodos para backend do menu</t>
   </si>
   <si>
@@ -118,7 +133,10 @@
     <t>T7</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T6 (M4)</t>
   </si>
   <si>
     <t>Desenvolver interface do menu</t>
@@ -127,7 +145,7 @@
     <t>T8</t>
   </si>
   <si>
-    <t>M4</t>
+    <t>T6 (M4)</t>
   </si>
   <si>
     <t>Reunião semanal (Semana 2)</t>
@@ -136,7 +154,10 @@
     <t>T9</t>
   </si>
   <si>
-    <t>M5</t>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>T7, T8 (M5)</t>
   </si>
   <si>
     <t>Desenvolver métodos para backend do Receitas Aleatoria</t>
@@ -145,7 +166,10 @@
     <t>T10</t>
   </si>
   <si>
-    <t>M6</t>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>T9 (M6)</t>
   </si>
   <si>
     <t>Desenvolver interface de Receitas Aleatoria</t>
@@ -154,9 +178,6 @@
     <t>T11</t>
   </si>
   <si>
-    <t>M7</t>
-  </si>
-  <si>
     <t>Reunião semanal (Semana 3)</t>
   </si>
   <si>
@@ -166,7 +187,10 @@
     <t>M8</t>
   </si>
   <si>
-    <t>Criação de Diagrama de Análise de Projeto (pós-projeto)</t>
+    <t>T10, T11 (M7)</t>
+  </si>
+  <si>
+    <t>Criação de Diagrama de Classe (pós-projeto)</t>
   </si>
   <si>
     <t>T13</t>
@@ -175,10 +199,19 @@
     <t>M9</t>
   </si>
   <si>
-    <t>Criação de Diagrama de Análise de Sistema (pós-projeto)</t>
+    <t>T12 (M8)</t>
+  </si>
+  <si>
+    <t>Criação de Diagrama de Sequência (pós-projeto)</t>
   </si>
   <si>
     <t>T14</t>
+  </si>
+  <si>
+    <t>Fim</t>
+  </si>
+  <si>
+    <t>T13 (M9)</t>
   </si>
   <si>
     <t>Diagrama de Gantt  (pós-projeto)</t>
@@ -253,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB4893-2C1B-4E63-9B8D-29D1CC2CD5F2}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,7 +742,10 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="V3" s="7">
         <v>3</v>
@@ -716,7 +753,7 @@
     </row>
     <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -724,7 +761,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -734,46 +771,42 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="S4" s="7"/>
       <c r="V4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="7">
         <v>2</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="S5" s="7"/>
       <c r="V5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>8</v>
@@ -782,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="V6" s="7">
         <v>1</v>
@@ -796,7 +829,7 @@
     </row>
     <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>8</v>
@@ -805,13 +838,13 @@
         <v>5</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="V7" s="7">
         <v>5</v>
@@ -819,22 +852,22 @@
     </row>
     <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J8" s="7">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="V8" s="7">
         <v>3</v>
@@ -842,22 +875,22 @@
     </row>
     <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9" s="7">
         <v>10</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="V9" s="7">
         <v>2</v>
@@ -865,7 +898,7 @@
     </row>
     <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>8</v>
@@ -874,13 +907,13 @@
         <v>5</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V10" s="7">
         <v>5</v>
@@ -888,22 +921,22 @@
     </row>
     <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J11" s="7">
         <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="V11" s="7">
         <v>3</v>
@@ -911,10 +944,10 @@
     </row>
     <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -922,13 +955,13 @@
         <v>10</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="V12" s="7">
         <v>2</v>
@@ -936,7 +969,7 @@
     </row>
     <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>8</v>
@@ -947,13 +980,13 @@
         <v>5</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="V13" s="7">
         <v>5</v>
@@ -961,7 +994,7 @@
     </row>
     <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>8</v>
@@ -970,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V14" s="7">
         <v>3</v>
@@ -984,7 +1017,7 @@
     </row>
     <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>8</v>
@@ -993,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="V15" s="7">
         <v>3</v>
@@ -1007,22 +1040,22 @@
     </row>
     <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="7">
         <v>2</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V16" s="7">
         <v>1</v>
@@ -1030,33 +1063,37 @@
     </row>
     <row r="17" spans="1:22" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="7">
         <v>2</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V17" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="5"/>
       <c r="G18" s="7"/>
-      <c r="J18" s="5">
+      <c r="J18" s="9">
         <f>SUM(J2:J17)</f>
         <v>87</v>
       </c>
+      <c r="M18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="39.950000000000003" customHeight="1"/>
     <row r="20" spans="1:22" ht="39.950000000000003" customHeight="1"/>
